--- a/Datos/SEXO.xlsx
+++ b/Datos/SEXO.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\OneDrive\Documentos\GitHub\ProyectoFinal_IC\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A86DB3-E95E-484C-975D-C14206B34862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9FF270-B97D-41AD-A6EF-C450450712CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sexo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
